--- a/anlaysis1.xlsx
+++ b/anlaysis1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -47,42 +47,6 @@
   </si>
   <si>
     <t>Coursename</t>
-  </si>
-  <si>
-    <t>Niraj</t>
-  </si>
-  <si>
-    <t>Jain</t>
-  </si>
-  <si>
-    <t>26/09/98</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>njain2698.nj@gmail.c</t>
-  </si>
-  <si>
-    <t>8452035566</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>DataMining</t>
   </si>
 </sst>
 </file>
@@ -459,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -509,44 +473,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/anlaysis1.xlsx
+++ b/anlaysis1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,105 @@
   </si>
   <si>
     <t>Coursename</t>
+  </si>
+  <si>
+    <t>aditya</t>
+  </si>
+  <si>
+    <t>khati</t>
+  </si>
+  <si>
+    <t>29/05/1999</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>adityta.khati@somaiy</t>
+  </si>
+  <si>
+    <t>9594976005</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>user interface</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>amkhati11@somaiya.edu</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>jas</t>
+  </si>
+  <si>
+    <t>2019-12-26</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>ash@somaiya.edu</t>
+  </si>
+  <si>
+    <t>userinterface</t>
+  </si>
+  <si>
+    <t>sagar</t>
+  </si>
+  <si>
+    <t>variya</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>sagar@somaiya.edu</t>
+  </si>
+  <si>
+    <t>9029541855</t>
+  </si>
+  <si>
+    <t>machinelearning</t>
   </si>
 </sst>
 </file>
@@ -423,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -473,6 +572,158 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/anlaysis1.xlsx
+++ b/anlaysis1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -83,69 +83,6 @@
   </si>
   <si>
     <t>user interface</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>kh</t>
-  </si>
-  <si>
-    <t>2019-12-05</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>amkhati11@somaiya.edu</t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>ash</t>
-  </si>
-  <si>
-    <t>jas</t>
-  </si>
-  <si>
-    <t>2019-12-26</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>ash@somaiya.edu</t>
-  </si>
-  <si>
-    <t>userinterface</t>
-  </si>
-  <si>
-    <t>sagar</t>
-  </si>
-  <si>
-    <t>variya</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>sagar@somaiya.edu</t>
-  </si>
-  <si>
-    <t>9029541855</t>
-  </si>
-  <si>
-    <t>machinelearning</t>
   </si>
 </sst>
 </file>
@@ -522,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -610,120 +547,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/anlaysis1.xlsx
+++ b/anlaysis1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -47,42 +47,6 @@
   </si>
   <si>
     <t>Coursename</t>
-  </si>
-  <si>
-    <t>aditya</t>
-  </si>
-  <si>
-    <t>khati</t>
-  </si>
-  <si>
-    <t>29/05/1999</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>adityta.khati@somaiy</t>
-  </si>
-  <si>
-    <t>9594976005</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>user interface</t>
   </si>
 </sst>
 </file>
@@ -459,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -509,44 +473,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
